--- a/Listas de Ceps para Roteirização.xlsx
+++ b/Listas de Ceps para Roteirização.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12465" windowHeight="7815"/>
+    <workbookView windowWidth="18345" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,6 +200,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,144 +343,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,79 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,103 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +636,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -657,8 +687,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,45 +733,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,146 +744,146 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +903,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1235,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1524,7 +1533,7 @@
         <v>2010</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5"/>
@@ -1535,7 +1544,7 @@
       <c r="D10" s="3">
         <v>4496</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="3">
@@ -1544,7 +1553,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5"/>
@@ -1564,15 +1573,15 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>6790</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1584,15 +1593,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>170</v>
       </c>
       <c r="E13" s="6"/>
@@ -1600,15 +1609,15 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>304</v>
       </c>
       <c r="E14" s="6"/>
@@ -1616,15 +1625,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>49</v>
       </c>
       <c r="E15" s="6"/>
@@ -1632,17 +1641,17 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
